--- a/Excel Test.xlsx
+++ b/Excel Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10845064\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10845064\Documents\GitRepo\DGM1660Spring2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">So. </t>
   </si>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>Too?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>does.</t>
   </si>
 </sst>
 </file>
@@ -356,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,6 +393,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
